--- a/orders.xlsx
+++ b/orders.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18.04.2025 22:59</t>
+          <t>20.04.2025 13:36</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18.04.2025 22:59</t>
+          <t>20.04.2025 13:36</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,64 +500,89 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Олег</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Попов</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>popov@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>097954124730</t>
+        </is>
+      </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>static</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>InWork</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>31.05.2022 09:55</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+          <t>16.05.2025 19:36</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>user@gmail.com</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>sept12324</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Олександр</t>
+          <t>Alinaa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ковалик</t>
+          <t>Alinovn</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>gkjalkj@gmail.com</t>
+          <t>alina@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>908098908</t>
+          <t>380997809809</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -565,7 +590,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,88 +600,135 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>static</t>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>InWork</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>30.05.2022 16:52</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>02.06.2022 11:45</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Эльдар</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>Макс</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>krylova-05@mail.ru</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>akaguj@mailforspam.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8(929) 508-6</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>static</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>InWork</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16.04.2022 02:20</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>03.11.2021 22:00</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Максим</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>Павло</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>борцова</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ecyxipa@mailforspam.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8(978) 146-4</t>
+        </is>
+      </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>static</t>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>InWork</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10.04.2022 15:10</t>
+          <t>03.11.2021 05:07</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -664,39 +736,39 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ярослав</t>
+          <t>Гріша</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>одноколова</t>
+          <t>григорий</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>StanislavTrofimov@pastsky.ru</t>
+          <t>goolsby.c@yandex.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8(916) 637-0</t>
+          <t>8(927) 323-8</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>3453</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>FS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>pro</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -704,63 +776,22 @@
           <t>static</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>InWork</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10.01.2022 19:36</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>04.11.2021 22:50</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>101</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Макс</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>панькова</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>isogamipu@mailforspam.com</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8(929) 355-7</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>25</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>FE</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>static</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>08.12.2021 17:43</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -500,30 +500,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>499</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Олег</t>
+          <t>Гріша</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>григорий</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>popov@gmail.com</t>
+          <t>goolsby.c@yandex.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>097954124730</t>
+          <t>8(927) 323-8</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>3453</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -547,55 +547,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16.05.2025 19:36</t>
+          <t>04.11.2021 22:50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>user@gmail.com</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>sept12324</t>
-        </is>
-      </c>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>497</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alinaa</t>
+          <t>jgygjh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alinovn</t>
+          <t>тедеева</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>alina@gmail.com</t>
+          <t>valery.hasan@yandex.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>380997809809</t>
+          <t>8(916) 633-7</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FS</t>
+          <t>JCX</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>minimal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -610,7 +606,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>02.06.2022 11:45</t>
+          <t>03.11.2021 13:44</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,30 +677,30 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>497</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Павло</t>
+          <t>Alinaa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>борцова</t>
+          <t>Alinovn</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ecyxipa@mailforspam.com</t>
+          <t>alina@gmail.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8(978) 146-4</t>
+          <t>380997809809</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -713,7 +709,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>minimal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -728,54 +724,42 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>03.11.2021 05:07</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>02.06.2022 11:45</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Гріша</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>григорий</t>
+          <t>багаутдинова</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>goolsby.c@yandex.com</t>
+          <t>ehyka@mailforspam.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8(927) 323-8</t>
+          <t>8(915) 764-3</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3453</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>FS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>pro</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>static</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>InWork</t>
@@ -783,7 +767,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>04.11.2021 22:50</t>
+          <t>03.11.2021 17:42</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
